--- a/tests/output/Kiran_SBI_Statement_output.xlsx
+++ b/tests/output/Kiran_SBI_Statement_output.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table_2_Page_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table_3_Page_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table_4_Page_4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Table_5_Page_5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Text_Fallback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_pdfplumber_1_P1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table_pdfplumber_2_P2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table_pdfplumber_3_P3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table_pdfplumber_4_P4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Table_pdfplumber_5_P5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,7 +484,7 @@
 A S/IBKL/9666807527/Cab-
 4 Jul 2025 4 Jul 2025 TO TRANSFER- TRANSFER TO 140.00 31,61,668.19
 UPI/DR/463772340405/VJ17 4897695162091
-PUP/YESB/paytm-6693/Water-\n\n--- End of Page 1 ---\n\nTxn Date Value Description Ref No./Cheque Debit Credit Balance
+PUP/YESB/paytm-6693/Water-Txn Date Value Description Ref No./Cheque Debit Credit Balance
 Date No.
 4 Jul 2025 4 Jul 2025 TO TRANSFER- TRANSFER TO 1,451.00 31,60,217.19
 UPI/DR/361006584458/CONFI 4897695162091
@@ -556,7 +556,7 @@
 NA /YESB/Q853150756/Kiran-
 7 Jul 2025 7 Jul 2025 TO TRANSFER- TRANSFER TO 3,873.00 31,28,809.39
 UPI/DR/052723132462/MEDPL 4897691162095
-US /YESB/paytm-7108/Kiran-\n\n--- End of Page 2 ---\n\nTxn Date Value Description Ref No./Cheque Debit Credit Balance
+US /YESB/paytm-7108/Kiran-Txn Date Value Description Ref No./Cheque Debit Credit Balance
 Date No.
 7 Jul 2025 7 Jul 2025 TO TRANSFER- TRANSFER TO 80.00 31,28,729.39
 UPI/DR/565926890502/MAWA 4897691162095
@@ -629,7 +629,7 @@
 AP/HDFC/ibaco.4098/Gener-
 14 Jul 2025 14 Jul 2025 CASH CHEQUE-CASH 971558 10,00,000.00 24,45,982.35
 WITHDRAWAL BY CHQ-
-971558\n\n--- End of Page 3 ---\n\nTxn Date Value Description Ref No./Cheque Debit Credit Balance
+971558Txn Date Value Description Ref No./Cheque Debit Credit Balance
 Date No.
 14 Jul 2025 14 Jul 2025 TO TRANSFER- TRANSFER TO 2,50,000.00 21,95,982.35
 SBIYA25195133001740906773 38468864162
@@ -700,7 +700,7 @@
 YAGA
 31 Jul 2025 31 Jul 2025 TO TRANSFER- TRANSFER TO 68.00 14,90,443.72
 UPI/DR/712813597148/CHALU 4897694162092
-MUR/YESB/paytmqr5yc/Kiran-\n\n--- End of Page 4 ---\n\nTxn Date Value Description Ref No./Cheque Debit Credit Balance
+MUR/YESB/paytmqr5yc/Kiran-Txn Date Value Description Ref No./Cheque Debit Credit Balance
 Date No.
 31 Jul 2025 31 Jul 2025 TO TRANSFER- TRANSFER TO 2,50,000.00 12,40,443.72
 IMPS/521212820527/CNRB- 4698292162098
@@ -742,7 +742,7 @@
 EVI/YESB/Q022339333/Hari-
 (cid:9)(cid:9)(cid:9)(cid:9)(cid:9)(cid:9) Please do not share your ATM, Debit/Credit card number, PIN (Personal Identification Number) and OTP (One Time Password)
 with anyone over mail, SMS, phone call or any other media. Bank never asks for such information.
-(cid:9)(cid:9) **This is a computer generated statement and does not require a signature.\n\n--- End of Page 5 ---\n\n</t>
+(cid:9)(cid:9) **This is a computer generated statement and does not require a signature.</t>
         </is>
       </c>
     </row>
